--- a/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,23</t>
+          <t>3,17; 11,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,54</t>
+          <t>-1,03; 7,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 7,83</t>
+          <t>-0,19; 7,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 17,2</t>
+          <t>4,55; 17,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,57; 170,52</t>
+          <t>29,66; 171,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 104,66</t>
+          <t>-12,29; 120,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 154,29</t>
+          <t>-4,74; 158,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 788,34</t>
+          <t>45,18; 879,45</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,22</t>
+          <t>2,38; 10,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 9,31</t>
+          <t>1,92; 9,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,71</t>
+          <t>-1,05; 5,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 8,24</t>
+          <t>-1,06; 7,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,24; 95,95</t>
+          <t>16,55; 95,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 117,29</t>
+          <t>18,94; 121,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 84,19</t>
+          <t>-10,62; 84,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 128,37</t>
+          <t>-11,41; 117,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 8,82</t>
+          <t>0,58; 9,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,23</t>
+          <t>1,07; 9,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,08</t>
+          <t>1,34; 8,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,45</t>
+          <t>-3,8; 4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 57,28</t>
+          <t>3,16; 61,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 77,07</t>
+          <t>5,47; 73,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 101,78</t>
+          <t>9,99; 108,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 38,79</t>
+          <t>-21,67; 37,0</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 16,12</t>
+          <t>5,08; 15,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 15,03</t>
+          <t>5,61; 15,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 8,64</t>
+          <t>-0,04; 8,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,17</t>
+          <t>1,51; 9,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 101,96</t>
+          <t>23,4; 101,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,78; 110,93</t>
+          <t>30,18; 112,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 64,21</t>
+          <t>-0,05; 63,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 80,91</t>
+          <t>8,21; 76,99</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 13,9</t>
+          <t>0,15; 13,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 15,27</t>
+          <t>3,11; 15,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 15,15</t>
+          <t>3,64; 15,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,58</t>
+          <t>2,7; 10,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 54,91</t>
+          <t>0,45; 53,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 77,05</t>
+          <t>12,15; 75,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 92,18</t>
+          <t>17,9; 90,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 57,55</t>
+          <t>10,99; 58,6</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,39</t>
+          <t>10,82; 22,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 14,52</t>
+          <t>2,62; 14,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 13,56</t>
+          <t>3,37; 13,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 9,69</t>
+          <t>-5,82; 9,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,69; 60,3</t>
+          <t>25,58; 63,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,18; 47,36</t>
+          <t>6,66; 45,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 43,51</t>
+          <t>9,0; 45,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 35,23</t>
+          <t>-19,13; 36,3</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>8,08; 12,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,14</t>
+          <t>6,01; 10,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,61</t>
+          <t>4,81; 8,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,53</t>
+          <t>2,97; 7,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>39,67; 66,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,59; 61,97</t>
+          <t>32,66; 62,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,52; 57,94</t>
+          <t>29,04; 57,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,59; 47,63</t>
+          <t>17,9; 49,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 11,16</t>
+          <t>3,19; 11,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 7,35</t>
+          <t>-1,04; 6,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,74</t>
+          <t>-0,56; 7,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,66; 171,1</t>
+          <t>28,79; 165,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 120,28</t>
+          <t>-11,08; 118,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 158,9</t>
+          <t>-10,11; 140,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,4</t>
+          <t>2,21; 10,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,16</t>
+          <t>1,58; 9,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,66</t>
+          <t>-1,12; 5,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 95,73</t>
+          <t>15,15; 102,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,94; 121,05</t>
+          <t>12,44; 117,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 84,76</t>
+          <t>-11,79; 82,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,0</t>
+          <t>0,39; 9,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,18</t>
+          <t>0,89; 9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,72</t>
+          <t>1,21; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 61,85</t>
+          <t>1,87; 61,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 73,79</t>
+          <t>5,36; 75,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 108,31</t>
+          <t>8,79; 104,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 15,8</t>
+          <t>5,32; 15,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 15,48</t>
+          <t>5,48; 15,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 8,23</t>
+          <t>0,03; 8,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,4; 101,96</t>
+          <t>27,12; 106,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,18; 112,62</t>
+          <t>27,6; 107,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 63,43</t>
+          <t>-0,6; 63,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 13,78</t>
+          <t>-0,4; 13,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 15,48</t>
+          <t>2,24; 15,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 15,01</t>
+          <t>3,71; 15,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 53,62</t>
+          <t>-1,29; 52,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 75,56</t>
+          <t>8,12; 73,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,9; 90,91</t>
+          <t>16,74; 91,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 22,35</t>
+          <t>10,5; 21,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 14,03</t>
+          <t>2,77; 14,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 13,9</t>
+          <t>2,84; 13,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,58; 63,1</t>
+          <t>25,03; 61,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 45,01</t>
+          <t>7,64; 46,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 45,35</t>
+          <t>7,64; 42,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,33</t>
+          <t>8,19; 12,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,3</t>
+          <t>6,25; 10,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,46</t>
+          <t>4,69; 8,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,67; 66,41</t>
+          <t>40,44; 67,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,66; 62,14</t>
+          <t>34,49; 63,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,04; 57,44</t>
+          <t>28,09; 57,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 11,4</t>
+          <t>3,27; 11,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 6,97</t>
+          <t>-1,56; 6,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,46</t>
+          <t>-0,18; 7,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 17,68</t>
+          <t>4,41; 17,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,79; 165,44</t>
+          <t>27,57; 170,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 118,02</t>
+          <t>-16,23; 104,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 140,45</t>
+          <t>-2,52; 154,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,18; 879,45</t>
+          <t>38,82; 788,34</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,51</t>
+          <t>2,41; 10,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,09</t>
+          <t>2,02; 9,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 5,98</t>
+          <t>-1,46; 5,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 7,91</t>
+          <t>-1,34; 8,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 102,92</t>
+          <t>16,24; 95,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 117,84</t>
+          <t>17,79; 117,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 82,94</t>
+          <t>-14,21; 84,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 117,74</t>
+          <t>-12,58; 128,37</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 9,3</t>
+          <t>0,11; 8,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,19</t>
+          <t>0,97; 9,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,27</t>
+          <t>1,06; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,32</t>
+          <t>-3,48; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 61,14</t>
+          <t>-0,05; 57,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 75,12</t>
+          <t>5,38; 77,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 104,26</t>
+          <t>9,9; 101,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 37,0</t>
+          <t>-20,69; 38,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 15,94</t>
+          <t>5,16; 16,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 15,1</t>
+          <t>4,76; 15,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 8,42</t>
+          <t>-0,03; 8,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 9,91</t>
+          <t>1,25; 10,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,12; 106,55</t>
+          <t>26,32; 101,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,6; 107,33</t>
+          <t>25,78; 110,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 63,56</t>
+          <t>-1,39; 64,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 76,99</t>
+          <t>6,86; 80,91</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 13,32</t>
+          <t>0,25; 13,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 15,11</t>
+          <t>2,36; 15,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 15,31</t>
+          <t>3,59; 15,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,92</t>
+          <t>2,12; 10,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 52,13</t>
+          <t>0,41; 54,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 73,42</t>
+          <t>9,39; 77,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 91,64</t>
+          <t>16,9; 92,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,99; 58,6</t>
+          <t>8,95; 57,55</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,5; 21,95</t>
+          <t>9,78; 21,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 14,26</t>
+          <t>3,02; 14,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 13,05</t>
+          <t>2,96; 13,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 9,84</t>
+          <t>-5,55; 9,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,03; 61,76</t>
+          <t>22,69; 60,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 46,24</t>
+          <t>8,18; 47,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 42,04</t>
+          <t>7,49; 43,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 36,3</t>
+          <t>-19,0; 35,23</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,34</t>
+          <t>8,19; 12,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,4</t>
+          <t>6,13; 10,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,59</t>
+          <t>4,64; 8,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,82</t>
+          <t>2,88; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,44; 67,11</t>
+          <t>40,29; 65,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,49; 63,65</t>
+          <t>33,59; 61,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,09; 57,66</t>
+          <t>27,52; 57,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 49,38</t>
+          <t>16,59; 47,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>252,63%</t>
+          <t>265,08%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 17,2</t>
+          <t>4,94; 17,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 788,34</t>
+          <t>45,75; 879,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 8,24</t>
+          <t>-4,33; 6,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 128,37</t>
+          <t>-35,1; 94,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,45</t>
+          <t>-3,31; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 38,79</t>
+          <t>-19,75; 39,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>69,3%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,17</t>
+          <t>2,26; 16,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 80,91</t>
+          <t>12,61; 259,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,81%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,58</t>
+          <t>2,28; 10,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 57,55</t>
+          <t>8,86; 58,14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,07</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>-9,77%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,39</t>
+          <t>12,93; 27,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 14,52</t>
+          <t>1,24; 15,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 13,56</t>
+          <t>1,6; 15,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 9,69</t>
+          <t>-16,94; 9,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,69; 60,3</t>
+          <t>37,06; 97,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,18; 47,36</t>
+          <t>3,54; 66,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 43,51</t>
+          <t>5,37; 67,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 35,23</t>
+          <t>-68,16; 44,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,15%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,72; 19,43</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 15,51</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 13,53</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 11,22</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 44,82</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 42,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 35,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 34,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10,16</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,16</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>47,15%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41,91%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>36,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>8,19; 12,19</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,13; 10,14</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,64; 8,61</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 7,53</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 9,06</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>40,29; 65,64</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>33,59; 61,97</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>27,52; 57,94</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>16,59; 47,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,35; 67,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,23</t>
+          <t>2,9; 11,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,54</t>
+          <t>-1,08; 6,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 7,83</t>
+          <t>-0,42; 7,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 17,84</t>
+          <t>4,73; 17,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,57; 170,52</t>
+          <t>25,31; 165,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 104,66</t>
+          <t>-12,82; 109,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 154,29</t>
+          <t>-6,84; 152,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,75; 879,3</t>
+          <t>35,66; 998,12</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,22</t>
+          <t>2,29; 10,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 9,31</t>
+          <t>1,54; 9,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,71</t>
+          <t>-1,07; 5,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,49</t>
+          <t>-5,22; 6,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,24; 95,95</t>
+          <t>14,23; 102,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 117,29</t>
+          <t>13,84; 118,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 84,19</t>
+          <t>-10,37; 90,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 94,21</t>
+          <t>-37,9; 91,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 8,82</t>
+          <t>0,93; 9,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,23</t>
+          <t>0,84; 9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,08</t>
+          <t>1,1; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,63</t>
+          <t>-3,42; 4,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 57,28</t>
+          <t>4,18; 63,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 77,07</t>
+          <t>4,63; 74,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 101,78</t>
+          <t>9,02; 102,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 39,66</t>
+          <t>-20,59; 41,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 16,12</t>
+          <t>5,42; 16,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 15,03</t>
+          <t>5,25; 15,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 8,64</t>
+          <t>0,08; 8,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 16,02</t>
+          <t>2,1; 16,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 101,96</t>
+          <t>25,84; 107,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,78; 110,93</t>
+          <t>28,49; 109,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 64,21</t>
+          <t>0,23; 62,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,61; 259,57</t>
+          <t>12,39; 298,28</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 13,9</t>
+          <t>0,25; 13,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 15,27</t>
+          <t>2,38; 15,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 15,15</t>
+          <t>3,69; 15,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 10,8</t>
+          <t>2,19; 11,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 54,91</t>
+          <t>1,13; 50,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 77,05</t>
+          <t>8,5; 72,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 92,18</t>
+          <t>16,22; 95,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 58,14</t>
+          <t>9,25; 59,07</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,93; 27,02</t>
+          <t>12,44; 26,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 15,81</t>
+          <t>0,95; 16,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 15,71</t>
+          <t>2,28; 16,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 9,89</t>
+          <t>-16,25; 9,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,06; 97,81</t>
+          <t>33,17; 92,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 66,67</t>
+          <t>2,71; 67,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 67,97</t>
+          <t>7,58; 67,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 44,03</t>
+          <t>-61,84; 43,27</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 19,43</t>
+          <t>0,62; 18,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 15,51</t>
+          <t>-2,48; 15,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 13,53</t>
+          <t>-3,49; 12,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 11,22</t>
+          <t>-0,22; 11,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 44,82</t>
+          <t>1,38; 43,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 42,22</t>
+          <t>-5,83; 40,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 35,53</t>
+          <t>-8,3; 33,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 34,24</t>
+          <t>-0,62; 34,84</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,19</t>
+          <t>7,88; 12,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,14</t>
+          <t>6,18; 10,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,61</t>
+          <t>4,58; 8,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,06</t>
+          <t>2,0; 9,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,64</t>
+          <t>37,8; 65,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,59; 61,97</t>
+          <t>33,8; 62,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,52; 57,94</t>
+          <t>27,55; 57,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,35; 67,89</t>
+          <t>13,92; 70,41</t>
         </is>
       </c>
     </row>
